--- a/Feuille de temps .xlsx
+++ b/Feuille de temps .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milena_dionnne/Desktop/uottawa 2019/CSI4506/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milena_dionnne/Documents/GitHub/project-CSI4506/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1827142C-CBEC-B84A-8C47-BDF83A28FE4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3BC57-BA02-1943-ADC7-9F6BCB9F23EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="460" windowWidth="26640" windowHeight="16420" xr2:uid="{E8D82A0E-FCBB-A946-A65C-0B21AEA4D2F2}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">15 minutes </t>
   </si>
   <si>
-    <t xml:space="preserve">Notebook: Obtenir le dataset </t>
-  </si>
-  <si>
     <t xml:space="preserve">Avec l'aide du notebook 4, j'ai pu importer les données, par la suite j'ai du modifier la base de donnée pour transposer les données en float et les dates en pd.dateTime </t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t xml:space="preserve">Samuel Bédard </t>
+  </si>
+  <si>
+    <t>Notebook: Obtenir le dataset et nottoyer le dataset</t>
   </si>
 </sst>
 </file>
@@ -285,6 +285,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,37 +319,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F49E5-2680-6744-BCD1-68ACE37FD826}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -663,12 +663,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -687,224 +687,224 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="38" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="102">
+      <c r="A10" s="16"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="68">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="102">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51">
+      <c r="A12" s="16"/>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="68">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="17">
+      <c r="A13" s="16"/>
+      <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="18"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="18"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="18"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="19"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Feuille de temps .xlsx
+++ b/Feuille de temps .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milena_dionnne/Documents/GitHub/project-CSI4506/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel\Documents\GitHub\project-CSI4506\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3BC57-BA02-1943-ADC7-9F6BCB9F23EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66038598-6098-4AFE-958F-A582680D0C15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="26640" windowHeight="16420" xr2:uid="{E8D82A0E-FCBB-A946-A65C-0B21AEA4D2F2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8D82A0E-FCBB-A946-A65C-0B21AEA4D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t xml:space="preserve">Feuille de temps </t>
   </si>
@@ -142,6 +142,54 @@
   </si>
   <si>
     <t>Notebook: Obtenir le dataset et nottoyer le dataset</t>
+  </si>
+  <si>
+    <t>anyse de de la fonction utiliser et le package</t>
+  </si>
+  <si>
+    <t>dand cette partie j'ai recherhcer la documentation sur le les algorythme de reseaux de neurone et qu'elle qui serait plus efficace.</t>
+  </si>
+  <si>
+    <t>2h30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester le package </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester quelque </t>
+  </si>
+  <si>
+    <t>preparer des donner preliminaire pour la presentation</t>
+  </si>
+  <si>
+    <t>il fu difficile de produire des données en même temps que de continuer d'apprendre à utiliser le package</t>
+  </si>
+  <si>
+    <t>preparer un algorythme pour tester differente possibiliter de layer size</t>
+  </si>
+  <si>
+    <t>l'algorythme fu simple a implementer, mais qu'elle erreur das les noms des parametre on relentit de beacoup l'implementation, car je devais recommancer du début et re-éxecter le code et certaine partie prene du temps a éxecuter</t>
+  </si>
+  <si>
+    <t>tester les layer size</t>
+  </si>
+  <si>
+    <t>ce ne fu pas tres difficile mais le code a pris beacoup de temps a éxécuter</t>
+  </si>
+  <si>
+    <t>analyse des resultats</t>
+  </si>
+  <si>
+    <t>1h15</t>
+  </si>
+  <si>
+    <t>analyse des résultats dans excel afin de voir quelle layer size et epoch choisir</t>
+  </si>
+  <si>
+    <t>entrainement en changent les parametre autre que le hidden layer size</t>
+  </si>
+  <si>
+    <t>entrainement final</t>
   </si>
 </sst>
 </file>
@@ -289,9 +337,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,15 +346,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,6 +371,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -650,25 +700,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F49E5-2680-6744-BCD1-68ACE37FD826}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -682,229 +732,277 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38" customHeight="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" ht="38.1" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34">
-      <c r="A5" s="16"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:6" ht="31.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="16"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:6" ht="47.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="16"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:6" ht="31.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51">
-      <c r="A9" s="16"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:6" ht="47.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="102">
-      <c r="A10" s="16"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:6" ht="94.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="68">
-      <c r="A11" s="16"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:6" ht="63">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51">
-      <c r="A12" s="16"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:6" ht="47.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="16"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:6" ht="31.5">
+      <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="19"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -913,5 +1011,6 @@
     <mergeCell ref="A14:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Feuille de temps .xlsx
+++ b/Feuille de temps .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel\Documents\GitHub\project-CSI4506\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milena_dionnne/Documents/GitHub/project-CSI4506/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66038598-6098-4AFE-958F-A582680D0C15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D330DCD9-7907-AF4B-BA65-D47FBF2AFAAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8D82A0E-FCBB-A946-A65C-0B21AEA4D2F2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{E8D82A0E-FCBB-A946-A65C-0B21AEA4D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t xml:space="preserve">Feuille de temps </t>
   </si>
@@ -108,9 +108,6 @@
     <t xml:space="preserve">3h </t>
   </si>
   <si>
-    <t xml:space="preserve">Préparation du dataset et prétraitement </t>
-  </si>
-  <si>
     <t xml:space="preserve">4h </t>
   </si>
   <si>
@@ -132,18 +129,9 @@
     <t>Commenter le notebook</t>
   </si>
   <si>
-    <t xml:space="preserve">Il fallait que mettre les titres et expliquer ce que nous avons fait. </t>
-  </si>
-  <si>
-    <t>30 minutes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Samuel Bédard </t>
   </si>
   <si>
-    <t>Notebook: Obtenir le dataset et nottoyer le dataset</t>
-  </si>
-  <si>
     <t>anyse de de la fonction utiliser et le package</t>
   </si>
   <si>
@@ -190,6 +178,24 @@
   </si>
   <si>
     <t>entrainement final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expliquation de ce que nous avons fait ainsi que le but de notre projet et commenter chaque code. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation des variables pour l'entrainement et prétraitement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commenter le notebook pour "Obtenir le dataset" et Random Forest Regression et écrire l'introduction </t>
+  </si>
+  <si>
+    <t>Notebook: Obtenir le dataset et nettoyer le dataset</t>
   </si>
 </sst>
 </file>
@@ -348,6 +354,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,18 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -700,25 +706,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F49E5-2680-6744-BCD1-68ACE37FD826}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="64.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -732,277 +738,277 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.1" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="38" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:6" ht="34">
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:6" ht="51">
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:6" ht="34">
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="47.25">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:6" ht="51">
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="102">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="68">
+      <c r="A11" s="16"/>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34">
+      <c r="A13" s="16"/>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34">
+      <c r="A14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="94.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68">
+      <c r="A17" s="18"/>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17">
+      <c r="A18" s="18"/>
+      <c r="B18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34">
+      <c r="A19" s="18"/>
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34">
+      <c r="A20" s="18"/>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="47.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="17">
+      <c r="A21" s="18"/>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="17">
+      <c r="A22" s="18"/>
+      <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="C22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="63">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.5">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31.5">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Feuille de temps .xlsx
+++ b/Feuille de temps .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milena_dionnne/Documents/GitHub/project-CSI4506/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D330DCD9-7907-AF4B-BA65-D47FBF2AFAAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA399474-E05E-7241-BC31-E31572B09B23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{E8D82A0E-FCBB-A946-A65C-0B21AEA4D2F2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{E8D82A0E-FCBB-A946-A65C-0B21AEA4D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t xml:space="preserve">Feuille de temps </t>
   </si>
@@ -183,12 +183,6 @@
     <t xml:space="preserve">5h </t>
   </si>
   <si>
-    <t xml:space="preserve">Expliquation de ce que nous avons fait ainsi que le but de notre projet et commenter chaque code. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2h </t>
-  </si>
-  <si>
     <t xml:space="preserve">Préparation des variables pour l'entrainement et prétraitement </t>
   </si>
   <si>
@@ -196,6 +190,9 @@
   </si>
   <si>
     <t>Notebook: Obtenir le dataset et nettoyer le dataset</t>
+  </si>
+  <si>
+    <t>Expliquation de ce que nous avons fait ainsi que le but de notre projet et commenter chaque code ainsi que faire une conclusion sur les données trouvées</t>
   </si>
 </sst>
 </file>
@@ -706,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F49E5-2680-6744-BCD1-68ACE37FD826}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="134" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -819,7 +816,7 @@
     <row r="9" spans="1:6" ht="51">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>49</v>
@@ -831,7 +828,7 @@
     <row r="10" spans="1:6" ht="102">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>25</v>
@@ -846,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>28</v>
@@ -864,16 +861,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34">
+    <row r="13" spans="1:6" ht="51">
       <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34">
